--- a/excel_to_db/2023 컴퓨터공학과 사물함 연장 신청.xlsx
+++ b/excel_to_db/2023 컴퓨터공학과 사물함 연장 신청.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17088" windowHeight="8112"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11244" windowHeight="8088"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="111">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
   <x:si>
     <x:r>
       <x:t>2</x:t>
@@ -30,12 +30,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>19호 앞</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>2</x:t>
+      <x:t>20호 앞</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>3</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -43,12 +43,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>20호 앞</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>3</x:t>
+      <x:t>,16</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>1</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -56,12 +56,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,16</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>1</x:t>
+      <x:t>,19</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>22</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -69,12 +69,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,19</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>3</x:t>
+      <x:t>0호 앞</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>2</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -82,12 +82,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,3</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>3</x:t>
+      <x:t>19호 앞</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>11</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -95,12 +95,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,7</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>3</x:t>
+      <x:t>4호 앞</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>11</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -108,7 +108,7 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,2</x:t>
+      <x:t>3호 앞</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -121,177 +121,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,3</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>황효주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강창한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박진영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진나은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이승현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이소희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안수진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권영준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조은경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변채원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조예림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신동진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이경민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윤금재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김두현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김지헌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박솔</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전선영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최요한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김형준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한석희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박예원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양유진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김민지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이재훈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정다정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박현정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행,열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김주영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정문석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김가빈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김유진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김우주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이광은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오주은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김세은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이상윤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조인혁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김병철</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김주희</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박서현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안형준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최서연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임현정</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>1</x:t>
+      <x:t>,14</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>3</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -299,12 +134,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,1</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>1</x:t>
+      <x:t>,14</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>3</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -312,7 +147,7 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,9</x:t>
+      <x:t>,19</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -325,12 +160,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,6</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>2</x:t>
+      <x:t>,16</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>3</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -338,12 +173,291 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,5</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>22</x:t>
+      <x:t>,20</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>3,16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219호 앞</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220호 앞</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114호 앞</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사물함 위치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>221호 앞</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113호 앞</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김주영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신동진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김주희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이광은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임현정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김은서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김우주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정다정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윤금재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김형준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정문석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안수진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김시현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김경민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이승현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이재훈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김지헌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박솔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양유진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김유진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박현정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변채원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이소희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전선영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권영준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조은경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최요한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한석희</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조예림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행,열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박예원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강창한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황효주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김민지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김가빈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김두현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박진영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조가을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진나은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신혜민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최재혁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이지훈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오주은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안형준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김재현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박서현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이상윤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조인혁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최서연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배정현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김수연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김병철</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유아성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김세은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>3</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -351,12 +465,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>0호 앞</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>11</x:t>
+      <x:t>,3</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>2</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -364,116 +478,8 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>4호 앞</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>이지훈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김재현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배정현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조가을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김시현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김은서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김수연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유아성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114호 앞</x:t>
-  </x:si>
-  <x:si>
-    <x:t>219호 앞</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>220호 앞</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사물함 위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>221호 앞</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113호 앞</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,19</x:t>
+      <x:t>,3</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -485,7 +491,7 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,14</x:t>
+      <x:t>,2</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -498,12 +504,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,20</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>3</x:t>
+      <x:t>,7</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>1</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -511,12 +517,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,19</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>11</x:t>
+      <x:t>,1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>2</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -524,12 +530,12 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>3호 앞</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>2</x:t>
+      <x:t>,6</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>1</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -537,7 +543,7 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,16</x:t>
+      <x:t>,9</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -550,7 +556,7 @@
         <x:sz val="11"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>,14</x:t>
+      <x:t>,5</x:t>
     </x:r>
   </x:si>
 </x:sst>
@@ -1196,7 +1202,7 @@
   <x:dimension ref="A1:D56"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D55" activeCellId="0" sqref="A55:D55"/>
+      <x:selection activeCell="D57" activeCellId="0" sqref="D57:D57"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -1206,773 +1212,790 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D1" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2">
         <x:v>21912033</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C3">
         <x:v>22012105</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C4">
         <x:v>21913661</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5">
         <x:v>21812131</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>96</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C6">
         <x:v>22012153</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C7">
         <x:v>22112015</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C8">
         <x:v>21812133</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C9">
         <x:v>21812065</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C10">
         <x:v>21912103</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C11">
         <x:v>22112083</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
-        <x:v>95</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C12">
         <x:v>21812089</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C13">
         <x:v>22112022</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C14">
         <x:v>21912157</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C15">
         <x:v>21912117</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C16">
         <x:v>22112108</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C17">
         <x:v>22112029</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C18">
         <x:v>22212014</x:v>
       </x:c>
       <x:c r="D18" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C19">
         <x:v>22112075</x:v>
       </x:c>
       <x:c r="D19" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C20">
         <x:v>22012059</x:v>
       </x:c>
       <x:c r="D20" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C21">
         <x:v>22112032</x:v>
       </x:c>
       <x:c r="D21" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
       <x:c r="A22" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C22">
         <x:v>22112103</x:v>
       </x:c>
       <x:c r="D22" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="A23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C23" s="5">
         <x:v>22112055</x:v>
       </x:c>
       <x:c r="D23" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
       <x:c r="A24" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C24" s="5">
         <x:v>22112020</x:v>
       </x:c>
       <x:c r="D24" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
       <x:c r="A25" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C25" s="5">
         <x:v>22112056</x:v>
       </x:c>
       <x:c r="D25" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
       <x:c r="A26" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C26" s="5">
         <x:v>21912068</x:v>
       </x:c>
       <x:c r="D26" s="3" t="s">
-        <x:v>84</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="A27" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C27" s="5">
         <x:v>22112071</x:v>
       </x:c>
       <x:c r="D27" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="A28" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C28" s="5">
         <x:v>22112038</x:v>
       </x:c>
       <x:c r="D28" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="A29" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C29" s="5">
         <x:v>22212067</x:v>
       </x:c>
       <x:c r="D29" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C30" s="5">
         <x:v>21720895</x:v>
       </x:c>
       <x:c r="D30" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C31" s="5">
         <x:v>22212012</x:v>
       </x:c>
       <x:c r="D31" s="3" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C32" s="5">
         <x:v>22211990</x:v>
       </x:c>
       <x:c r="D32" s="3" t="s">
-        <x:v>104</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C33" s="5">
         <x:v>22211983</x:v>
       </x:c>
       <x:c r="D33" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C34" s="5">
         <x:v>22212006</x:v>
       </x:c>
       <x:c r="D34" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="A35" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C35" s="5">
         <x:v>22112049</x:v>
       </x:c>
       <x:c r="D35" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
       <x:c r="A36" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C36" s="5">
         <x:v>22112132</x:v>
       </x:c>
       <x:c r="D36" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C37" s="5">
         <x:v>22112072</x:v>
       </x:c>
       <x:c r="D37" s="3" t="s">
-        <x:v>86</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
       <x:c r="A38" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C38" s="5">
         <x:v>22211979</x:v>
       </x:c>
       <x:c r="D38" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C39" s="5">
         <x:v>22212063</x:v>
       </x:c>
       <x:c r="D39" s="3" t="s">
-        <x:v>103</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C40" s="5">
         <x:v>22212053</x:v>
       </x:c>
       <x:c r="D40" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
       <x:c r="A41" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C41" s="5">
         <x:v>22112414</x:v>
       </x:c>
       <x:c r="D41" s="3" t="s">
-        <x:v>81</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
       <x:c r="A42" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C42" s="5">
         <x:v>21912057</x:v>
       </x:c>
       <x:c r="D42" s="3" t="s">
-        <x:v>82</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="A43" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C43" s="5">
         <x:v>22112126</x:v>
       </x:c>
       <x:c r="D43" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4">
       <x:c r="A44" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C44" s="5">
         <x:v>22110678</x:v>
       </x:c>
       <x:c r="D44" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
       <x:c r="A45" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B45" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C45" s="5">
         <x:v>22212055</x:v>
       </x:c>
       <x:c r="D45" s="3" t="s">
-        <x:v>105</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
       <x:c r="A46" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C46" s="5">
         <x:v>22212009</x:v>
       </x:c>
       <x:c r="D46" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
       <x:c r="A47" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B47" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C47" s="5">
         <x:v>22112030</x:v>
       </x:c>
       <x:c r="D47" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C48" s="5">
         <x:v>22111447</x:v>
       </x:c>
       <x:c r="D48" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:4">
       <x:c r="A49" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C49" s="5">
         <x:v>22112061</x:v>
       </x:c>
       <x:c r="D49" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:4">
       <x:c r="A50" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C50" s="5">
         <x:v>22120412</x:v>
       </x:c>
       <x:c r="D50" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:4">
       <x:c r="A51" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C51" s="5">
         <x:v>21720909</x:v>
       </x:c>
       <x:c r="D51" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:4">
       <x:c r="A52" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C52" s="5">
         <x:v>21912144</x:v>
       </x:c>
       <x:c r="D52" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:4">
       <x:c r="A53" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B53" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C53" s="5">
         <x:v>21812116</x:v>
       </x:c>
       <x:c r="D53" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:4">
       <x:c r="A54" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C54" s="5">
         <x:v>22112100</x:v>
       </x:c>
       <x:c r="D54" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:4">
-      <x:c r="A55" s="1"/>
-      <x:c r="B55" s="1"/>
-      <x:c r="C55" s="5"/>
-      <x:c r="D55" s="3"/>
+      <x:c r="A55" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B55" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C55" s="5">
+        <x:v>22012116</x:v>
+      </x:c>
+      <x:c r="D55" s="3" t="s">
+        <x:v>96</x:v>
+      </x:c>
     </x:row>
     <x:row r="56" spans="1:4">
-      <x:c r="A56" s="1"/>
-      <x:c r="B56" s="1"/>
-      <x:c r="D56" s="3"/>
+      <x:c r="A56" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B56" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C56">
+        <x:v>21812096</x:v>
+      </x:c>
+      <x:c r="D56" s="3" t="s">
+        <x:v>96</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438477" right="0.69986110925674438477" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>